--- a/www/plys/Tern/FspClass.xlsx
+++ b/www/plys/Tern/FspClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzurloye\Desktop\RockR! v1.3\plys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtshu\Desktop\RockR-master\www\plys\Tern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FFDA83-49DF-4DBE-96E0-3CCE3C0F0FB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6877CF7-F2C1-43CA-8DBF-F5475F32404E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="9072" activeTab="2" xr2:uid="{F1DDF450-51F8-47CC-8C6B-921E0C73DF77}"/>
   </bookViews>
   <sheets>
     <sheet name="plys" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>Miscibility Gap</t>
+  </si>
+  <si>
+    <t>A_arrow</t>
+  </si>
+  <si>
+    <t>B_arrow</t>
+  </si>
+  <si>
+    <t>C_arrow</t>
+  </si>
+  <si>
+    <t>Or (%)</t>
+  </si>
+  <si>
+    <t>Ab (%)</t>
+  </si>
+  <si>
+    <t>An (%)</t>
   </si>
 </sst>
 </file>
@@ -451,18 +469,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9529596-61E0-4F4F-A620-DAFC4599F044}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -496,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -513,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -530,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -547,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -564,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -581,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -598,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -615,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -632,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -649,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -666,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10.714285714285714</v>
       </c>
@@ -683,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13.913043478260869</v>
       </c>
@@ -700,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -717,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -734,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13.913043478260869</v>
       </c>
@@ -751,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>13.043478260869565</v>
       </c>
@@ -768,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -785,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -802,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>90.91</v>
       </c>
@@ -819,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>35.909999999999997</v>
       </c>
@@ -836,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>33.96</v>
       </c>
@@ -853,7 +871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>25.641025641025639</v>
       </c>
@@ -870,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>19.75</v>
       </c>
@@ -887,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>13.913043478260869</v>
       </c>
@@ -904,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>10.714285714285714</v>
       </c>
@@ -921,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -938,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -955,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -972,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>9.09</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>37.5</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33.962264150943398</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>35.909999999999997</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>90.91</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>100</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>9.09</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -1125,7 +1143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>13.043478260869565</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>13.913043478260869</v>
       </c>
@@ -1159,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>19.75</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>25.641025641025639</v>
       </c>
@@ -1193,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>33.962264150943398</v>
       </c>
@@ -1210,7 +1228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>37.5</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>9.09</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -1295,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -1323,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>9.0909090909090917</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>9.09</v>
       </c>
@@ -1352,7 +1370,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E53">
     <sortCondition ref="E2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,12 +1385,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,16 +1624,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
@@ -1625,15 +1643,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E532FD-530C-44D1-B4F3-37AF0671EC71}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="6" width="14.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1644,10 +1665,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1658,6 +1688,15 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
     </row>
